--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3239681.585952029</v>
+        <v>3237136.399878743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>401.9982192570611</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>31.60187511706035</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>267.9612553036279</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>60.43643280702354</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.6333765063158</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>53.12040312879424</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.175505447095</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>825.2129885066831</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>466.9472898999326</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9472898999326</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>460.0017891507292</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1515.02307474038</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.060557799969</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2665.228005041394</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2665.228005041394</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2665.228005041394</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2665.228005041394</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2665.228005041394</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2665.228005041394</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2291.762246780314</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1901.622914804502</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.2058773455032</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="C8" t="n">
-        <v>453.2058773455032</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="D8" t="n">
-        <v>453.2058773455032</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E8" t="n">
-        <v>453.2058773455032</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>446.2603765962997</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>433.2129988731313</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>114.9898836456408</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>297.0690422295933</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2127.058082584813</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.179462916631</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.410807646517</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="X8" t="n">
-        <v>1229.945049385437</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="Y8" t="n">
-        <v>839.805717409625</v>
+        <v>1544.8259834174</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1734.774662373908</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.085084136179</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1489012082722</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0322617959364</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1191682135433</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2292207156329</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1000.220690422341</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>1000.220690422341</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121634</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>368.1017737596992</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>216.3441640494769</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>366.5683748125719</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>298.2791459958705</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194309</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408521</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287549</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.274728755</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.274728755</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287548</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26372,10 +26372,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808059</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682826</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682765</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682762</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682752</v>
-      </c>
       <c r="I4" t="n">
+        <v>5677.536566682746</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682764</v>
-      </c>
       <c r="K4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.536566682735</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682746</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682737</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682801</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682786</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164337.8241097392</v>
+        <v>-164337.8241097391</v>
       </c>
       <c r="C6" t="n">
-        <v>425630.0551048052</v>
+        <v>425630.0551048049</v>
       </c>
       <c r="D6" t="n">
-        <v>269826.2490110102</v>
+        <v>269826.2490110098</v>
       </c>
       <c r="E6" t="n">
-        <v>-171599.4830426401</v>
+        <v>-171634.2209680771</v>
       </c>
       <c r="F6" t="n">
-        <v>599453.2083381653</v>
+        <v>599418.4704127295</v>
       </c>
       <c r="G6" t="n">
-        <v>599453.2083381653</v>
+        <v>599418.4704127295</v>
       </c>
       <c r="H6" t="n">
-        <v>599453.2083381652</v>
+        <v>599418.47041273</v>
       </c>
       <c r="I6" t="n">
-        <v>599453.2083381655</v>
+        <v>599418.4704127295</v>
       </c>
       <c r="J6" t="n">
-        <v>423029.9891455722</v>
+        <v>422995.2512201375</v>
       </c>
       <c r="K6" t="n">
-        <v>599453.208338165</v>
+        <v>599418.4704127297</v>
       </c>
       <c r="L6" t="n">
-        <v>599453.2083381657</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="M6" t="n">
-        <v>475244.6976301071</v>
+        <v>475209.9597046713</v>
       </c>
       <c r="N6" t="n">
-        <v>599453.2083381654</v>
+        <v>599418.4704127297</v>
       </c>
       <c r="O6" t="n">
-        <v>599453.2083381655</v>
+        <v>599418.4704127304</v>
       </c>
       <c r="P6" t="n">
-        <v>599453.2083381657</v>
+        <v>599418.47041273</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26966,25 +26966,25 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036082</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450923</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>11.78595076373392</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>22.87652745775136</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.62049154535643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>97.31163646737969</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>58.05960808686675</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.287400048254653</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>152.2454787713244</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>253.6713445158006</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642889</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34939,7 +34939,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>556.6870392399089</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>328.1970178368775</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>547.878815574799</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>459.4026941461338</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>122.3296324324673</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,13 +35893,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
